--- a/Heights.xlsx
+++ b/Heights.xlsx
@@ -1,26 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>Beidou</t>
+  </si>
+  <si>
+    <t>Candace</t>
+  </si>
+  <si>
+    <t>Dehya</t>
+  </si>
+  <si>
+    <t>Eula</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Kujou</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Ningguang</t>
+  </si>
+  <si>
+    <t>Raiden</t>
+  </si>
+  <si>
+    <t>Rosaria</t>
+  </si>
+  <si>
+    <t>Shenhe</t>
+  </si>
+  <si>
+    <t>Yae</t>
+  </si>
+  <si>
+    <t>Yelan</t>
+  </si>
+  <si>
+    <t>Albedo</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Chongyun</t>
+  </si>
+  <si>
+    <t>Cyno</t>
+  </si>
+  <si>
+    <t>Gorou</t>
+  </si>
+  <si>
+    <t>Kazuha</t>
+  </si>
+  <si>
+    <t>Razor</t>
+  </si>
+  <si>
+    <t>Scara</t>
+  </si>
+  <si>
+    <t>Heizou</t>
+  </si>
+  <si>
+    <t>Tighnari</t>
+  </si>
+  <si>
+    <t>Venti</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>Xingqiu</t>
+  </si>
+  <si>
+    <t>Arlecchino</t>
+  </si>
+  <si>
+    <t>Navia</t>
+  </si>
+  <si>
+    <t>Xianyun</t>
+  </si>
+  <si>
+    <t>Freminet</t>
+  </si>
+  <si>
+    <t>Lyney</t>
+  </si>
+  <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +172,470 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="21540000" sx="200000" sy="200000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$1:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Candace</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Beidou</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yae</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ningguang</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rosaria</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Navia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jean</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Yelan</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Eula</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dehya</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Xianyun</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Lisa</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Raiden</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Shenhe</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Kujou</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Arlecchino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>169.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="86049920"/>
+        <c:axId val="35061120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86049920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="35061120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="35061120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86049920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="50800" dir="21540000" sx="200000" sy="200000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>Mika</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Freminet</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cyno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Xiao</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gaming</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lyney</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Albedo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Chongyun</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tighnari</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Razor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Heizou</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kazuha</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Xingqiu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Venti</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gorou</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Bennett</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Scara</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>161.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>163.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>164.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>164.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="110391296"/>
+        <c:axId val="110392832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110391296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="110392832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110392832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110391296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -111,7 +679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -323,20 +891,263 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>169</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1">
+        <v>161.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>169.2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>169.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>161.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>169.6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>169.7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>169.9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>162.69999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>170.1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>170.2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>163.30000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>170.3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>170.4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>163.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>170.9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>163.80000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>171.2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>171.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>164.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>171.8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>164.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>172.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>164.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>173.1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>164.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12">
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>164.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B17">
+    <sortCondition ref="B1:B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>